--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Projects/100 Behaviour Change/BCIO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/HBCP/ontologies/Upper Level BCIO/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D679698-EEDD-E847-9F25-81257FE7A57D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F702B7A7-3AE5-6941-B373-05818C881725}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14660" xr2:uid="{9767541C-89D6-E140-BE83-DB68ADA24613}"/>
+    <workbookView xWindow="7840" yWindow="1660" windowWidth="17760" windowHeight="13440" xr2:uid="{9767541C-89D6-E140-BE83-DB68ADA24613}"/>
   </bookViews>
   <sheets>
     <sheet name="Relations" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="91">
   <si>
     <t>Relationship</t>
   </si>
@@ -292,6 +292,18 @@
   </si>
   <si>
     <t>BFO:0000119</t>
+  </si>
+  <si>
+    <t>RO:0000052</t>
+  </si>
+  <si>
+    <t>is attribute of</t>
+  </si>
+  <si>
+    <t>inheres in [RO:0000052]</t>
+  </si>
+  <si>
+    <t>A relation between a specifically dependent continuant (the dependent) and an independent continuant (the bearer), in which the dependent specifically depends on the bearer for its existence</t>
   </si>
 </sst>
 </file>
@@ -660,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028A4458-1A41-4C47-B147-2B104BBF13C2}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -728,256 +740,250 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>54</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>44</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>45</v>
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
         <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
         <v>60</v>
       </c>
       <c r="G15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
         <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
         <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F19" t="s">
         <v>60</v>
@@ -988,21 +994,41 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>49</v>
       </c>
       <c r="E20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" t="s">
         <v>70</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F21" t="s">
         <v>71</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G21" t="s">
         <v>72</v>
       </c>
     </row>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/HBCP/ontologies/Upper Level BCIO/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F702B7A7-3AE5-6941-B373-05818C881725}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EA6FBE-6D61-BB47-BACC-3E316B2CD65B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7840" yWindow="1660" windowWidth="17760" windowHeight="13440" xr2:uid="{9767541C-89D6-E140-BE83-DB68ADA24613}"/>
+    <workbookView xWindow="7840" yWindow="1640" windowWidth="17760" windowHeight="13440" xr2:uid="{9767541C-89D6-E140-BE83-DB68ADA24613}"/>
   </bookViews>
   <sheets>
     <sheet name="Relations" sheetId="1" r:id="rId1"/>
@@ -273,9 +273,6 @@
     <t>BCIOR:000007</t>
   </si>
   <si>
-    <t>RO_0002353</t>
-  </si>
-  <si>
     <t>output of</t>
   </si>
   <si>
@@ -304,6 +301,9 @@
   </si>
   <si>
     <t>A relation between a specifically dependent continuant (the dependent) and an independent continuant (the bearer), in which the dependent specifically depends on the bearer for its existence</t>
+  </si>
+  <si>
+    <t>RO:0002353</t>
   </si>
 </sst>
 </file>
@@ -675,7 +675,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -740,30 +740,30 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
         <v>87</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>88</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>89</v>
-      </c>
-      <c r="E4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" t="s">
         <v>84</v>
-      </c>
-      <c r="E5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -852,16 +852,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" t="s">
         <v>80</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" t="s">
         <v>81</v>
-      </c>
-      <c r="C12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1052,6 +1052,35 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>BCIOR:000008</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>through</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>A relation that holds between a mechanism of action and an entity that is causally active</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>mechanism of action</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -1067,7 +1067,7 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>A relation that holds between a mechanism of action and an entity that is causally active</t>
+          <t xml:space="preserve">A relation that holds between an interventions mechanism of action and an entity x, in which the entity x  participates in or is part of the mechanism of action process and  is influenced by a BCI or its context such that there is some change in entity x. </t>
         </is>
       </c>
       <c r="F23" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\OneDrive\Documents\GitHub\ontologies\Upper Level BCIO\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/HBCP/ontologies/Upper Level BCIO/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4FDB4C-4057-4581-9C69-DED933E1A877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D463B231-E088-4347-AA03-D7C03B66B2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="104">
   <si>
     <t>ID</t>
   </si>
@@ -320,6 +320,18 @@
   </si>
   <si>
     <t>mechanism of action</t>
+  </si>
+  <si>
+    <t>is process attribute of</t>
+  </si>
+  <si>
+    <t>process profile of [BFO:0000133]</t>
+  </si>
+  <si>
+    <t>BFO:0000133</t>
+  </si>
+  <si>
+    <t>inverse of has_process_profile</t>
   </si>
 </sst>
 </file>
@@ -338,6 +350,7 @@
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -670,25 +683,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="52.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="41.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="53.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="27.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="37.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="52.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="41.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="53.83203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="26" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="7" max="7" width="18.33203125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,7 +724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -725,7 +738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -739,7 +752,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -753,7 +766,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -767,244 +780,238 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>61</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>63</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>61</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>61</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>63</v>
@@ -1013,60 +1020,80 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="24" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>82</v>
       </c>
     </row>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,273 +466,341 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BFO:0000051</t>
+          <t>RO:0002506</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>has part</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>has part [BFO:0000051]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>A core relation that holds between a whole and its part</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+          <t>causal relation between entities</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>causally related to [RO:0002410]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RO:0000053</t>
+          <t>RO:0002559</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>has attribute</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>bearer of [RO:0000053]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>A relation between an independent continuant (the bearer) and a specifically dependent continuant (the dependent), in which the dependent specifically depends on the bearer for its existence</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+          <t>causally influenced by</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>causal relation between entities [RO:0002506]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>behaviour intention</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RO:0000052</t>
+          <t>BCIOR:000006</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>is attribute of</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>inheres in [RO:0000052]</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>comparatively evaluates</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>is about [IAO:0000136]</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A relation between a specifically dependent continuant (the dependent) and an independent continuant (the bearer), in which the dependent specifically depends on the bearer for its existence</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+          <t>A relation that holds between a comparative evaluation study and two or more scenarios that are being compared</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>research study</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BFO:0000119</t>
+          <t>BCIOR:000007</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>has process attribute</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>has profile [BFO:0000119]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>difference between</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>is about [IAO:0000136]</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Inverse of process_profile_of</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+          <t>A relation that holds between an effect estimate and two outcome estimates</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>effect estimate</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>outcome estimate</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BFO:0000133</t>
+          <t>RO:0002229</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>is process attribute of</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>process profile of [BFO:0000133]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>ends</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>temporally related to [RO:0002222]</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>inverse of has_process_profile</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+          <t>inverse of ends with</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BFO:0000117</t>
+          <t>BCIOR:000005</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>has process part</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>has occurrent part [BFO:0000117]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>evaluates</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>is about [IAO:0000136]</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Inverse of occurrent_part_of which is defined as: b occurrent_part_of c =Def. b is a part of c and b and c are occurrents.</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+          <t>A relation that holds between an evaluation study and the scenario that it is evaluating</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>research study</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RO:0001025</t>
+          <t>RO:0002092</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>located in</t>
+          <t>happens during</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>located in [RO:0001025]</t>
+          <t>happens during [RO:0002092]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A relation between two independent continuants, the target and the location, in which the target is entirely within the location</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+          <t>X happens_during Y iff: (start(Y) before_or_simultaneous_with start(X)) AND (end(X) before_or_simultaneous_with end(Y))</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RO:0000056</t>
+          <t>BCIOR:000004</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>participates in</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>participates in [RO:0000056]</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>has BCI context</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>has participant [RO:0000057]</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A relation between a continuant and a process, in which the continuant is somehow involved in the process</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+          <t>A relation that holds between a behaviour change intervention scenario and the context of the scenario</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>behaviour change intervention scenario</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>behaviour change intervention context</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IAO:0000136</t>
+          <t>BCIOR:000003</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>is about</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>is about [IAO:0000136]</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>has BCI source</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>has participant [RO:0000057]</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Is about is a (currently) primitive relation that relates an information artifact to an entity.</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+          <t>A relation that holds between a behaviour change intervention delivery and the source who performs the delivery</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>behaviour change intervention delivery</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>behaviour change intervention source</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RO:0000091</t>
+          <t>BCIOR:000009</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>has disposition</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>has disposition [RO:0000091]</t>
-        </is>
-      </c>
+          <t>has abstinence period</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A relation between an independent continuant (the bearer) and a disposition, in which the disposition specifically depends on the bearer for its existence</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+          <t>A relation that links abstinence from a behaviour to a temporal region during which this personal attribute is true</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>abstinence from a behaviour</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>abstinence duration</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RO:0002234</t>
+          <t>RO:0000053</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>has output</t>
+          <t>has attribute</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>has output [RO:0002234]</t>
+          <t>bearer of [RO:0000053]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>P has output c iff c is a participant in p, c is present at the end of p, and c is not present at the beginning of p.</t>
+          <t>A relation between an independent continuant (the bearer) and a specifically dependent continuant (the dependent), in which the dependent specifically depends on the bearer for its existence</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -741,120 +809,141 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>RO:0002353</t>
+          <t>BCIOR:000010</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>output of</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>output of [RO:0002353]</t>
-        </is>
-      </c>
+          <t>has behavioural attribute</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Inverse of has output relation</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+          <t>A relation that links an individual human behaviour to a behavioural attribute.</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>behavioural attribute</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BFO:0000055</t>
+          <t>BCIOR:000016</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>realises</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>realizes [BFO:0000055]</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>has behavioural companion</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>has participant [RO:0000057]</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>To say that b realizes c at t is to assert that there is some material entity d and b is a process which has participant d at t and c is a disposition or role of which d is bearer_of at tand the type instantiated by b is correlated with the type instantiated by c.</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+          <t>Has participant that relates a behaviour to another sentient being that accompanies the person enacting the behaviour.</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>animal</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BFO:0000054</t>
+          <t>BCIOR:000012</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>realised in</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>realized in [BFO:0000054]</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>has behavioural goal</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">causally influenced by [RO:0002559]
+</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Inverse of realizes relation.</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+          <t>Causally influenced by a cognitive representation of something the behaviour could bring about.</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>cognitive representation</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIOR:000001</t>
+          <t>BCIOR:000013</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>has study sample</t>
+          <t>has behavioural outcome</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>has participant [RO:0000057]</t>
+          <t>causal relation between entities [RO:0002506]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>A relation that holds between a study and the study sample for that study</t>
+          <t>Causally relation between two entities in which a behaviour brings into existence, causes to occur, destroys, prevents from occurring, or changes an entity.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>research study</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>research study sample</t>
+          <t>entity</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIOR:000002</t>
+          <t>BCIOR:000017</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>has study investigator</t>
+          <t>has behavioural target</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -865,333 +954,281 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>A relation that holds between a study and the study investigator for that study</t>
+          <t>Has participant that relates the behaviour to an object that the person enacting the behaviour intends to influence.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>research study</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>research study investigator</t>
+          <t>person</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIOR:000003</t>
+          <t>RO:0000091</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>has BCI source</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>has participant [RO:0000057]</t>
-        </is>
-      </c>
+          <t>has disposition</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>has disposition [RO:0000091]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>A relation that holds between a behaviour change intervention delivery and the source who performs the delivery</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>behaviour change intervention delivery</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>behaviour change intervention source</t>
-        </is>
-      </c>
+          <t>A relation between an independent continuant (the bearer) and a disposition, in which the disposition specifically depends on the bearer for its existence</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIOR:000004</t>
+          <t>RO:0002234</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>has BCI context</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>has participant [RO:0000057]</t>
-        </is>
-      </c>
+          <t>has output</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>has output [RO:0002234]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>A relation that holds between a behaviour change intervention scenario and the context of the scenario</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>behaviour change intervention scenario</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>behaviour change intervention context</t>
-        </is>
-      </c>
+          <t>P has output c iff c is a participant in p, c is present at the end of p, and c is not present at the beginning of p.</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIOR:000005</t>
+          <t>BFO:0000051</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>evaluates</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>is about [IAO:0000136]</t>
-        </is>
-      </c>
+          <t>has part</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>has part [BFO:0000051]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A relation that holds between an evaluation study and the scenario that it is evaluating</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>research study</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
+          <t>A core relation that holds between a whole and its part</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIOR:000006</t>
+          <t>BFO:0000119</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>comparatively evaluates</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>is about [IAO:0000136]</t>
-        </is>
-      </c>
+          <t>has process attribute</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>has profile [BFO:0000119]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A relation that holds between a comparative evaluation study and two or more scenarios that are being compared</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>research study</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
+          <t>Inverse of process_profile_of</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIOR:000007</t>
+          <t>BFO:0000117</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>difference between</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>is about [IAO:0000136]</t>
-        </is>
-      </c>
+          <t>has process part</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>has occurrent part [BFO:0000117]</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>A relation that holds between an effect estimate and two outcome estimates</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>effect estimate</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>outcome estimate</t>
-        </is>
-      </c>
+          <t>Inverse of occurrent_part_of which is defined as: b occurrent_part_of c =Def. b is a part of c and b and c are occurrents.</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>RO:0002092</t>
+          <t>BCIOR:000002</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>happens during</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>happens during [RO:0002092]</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>has study investigator</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>has participant [RO:0000057]</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>X happens_during Y iff: (start(Y) before_or_simultaneous_with start(X)) AND (end(X) before_or_simultaneous_with end(Y))</t>
+          <t>A relation that holds between a study and the study investigator for that study</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>research study</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>research study investigator</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIOR:000008</t>
+          <t>BCIOR:000001</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>through</t>
+          <t>has study sample</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>has participant [RO:0000057]</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve">A relation that holds between an interventions mechanism of action and an entity x, in which the entity x  participates in or is part of the mechanism of action process and  is influenced by a BCI or its context such that there is some change in entity x. </t>
+          <t>A relation that holds between a study and the study sample for that study</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>mechanism of action</t>
+          <t>research study</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>research study sample</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>RO:0002223</t>
+          <t>IAO:0000136</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>starts</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>temporally related to [RO:0002222]</t>
-        </is>
-      </c>
+          <t>is about</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>is about [IAO:0000136]</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve">inverse of starts with </t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>one-dimensional temporal region</t>
-        </is>
-      </c>
+          <t>Is about is a (currently) primitive relation that relates an information artifact to an entity.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>RO:0002229</t>
+          <t>RO:0000052</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ends</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>temporally related to [RO:0002222]</t>
-        </is>
-      </c>
+          <t>is attribute of</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>inheres in [RO:0000052]</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>inverse of ends with</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>one-dimensional temporal region</t>
-        </is>
-      </c>
+          <t>A relation between a specifically dependent continuant (the dependent) and an independent continuant (the bearer), in which the dependent specifically depends on the bearer for its existence</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BFO:0000155</t>
+          <t>BCIOR:000014</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>occupies temporal region</t>
+          <t>is enacted by</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>exists at [BFO:0000108]</t>
+          <t>has participant [RO:0000057]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>p occupies_temporal_region t. This is a primitive relation between an occurrent p and the temporal region t upon which the spatiotemporal region p occupies_spatiotemporal_region projects.</t>
+          <t>Has participant that relates a behaviour to the person enacting the behaviour.</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1201,308 +1238,275 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>temporal interval</t>
+          <t>person</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BFO:0000066</t>
+          <t>BFO:0000133</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>occurs in</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
+          <t>is process attribute of</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>process profile of [BFO:0000133]</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>b occurs_in c =def b is a process and c is a material entity or immaterial entityand there exists a spatiotemporal region r and b occupies_spatiotemporal_region r.and forall(t) if b exists_at t then c exists_at t and there exist spatial regions s and s’ where and b spatially_projects_onto s at tand c is occupies_spatial_region s’ at tand s is a proper_continuant_part_of s’ at t</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
+          <t>inverse of has_process_profile</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RO:0002559</t>
+          <t>RO:0001025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>causally influenced by</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>causal relation between entities [RO:0002506]</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>behaviour intention</t>
-        </is>
-      </c>
+          <t>located in</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>located in [RO:0001025]</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>A relation between two independent continuants, the target and the location, in which the target is entirely within the location</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>RO:0002506</t>
+          <t>BFO:0000155</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>causal relation between entities</t>
+          <t>occupies temporal region</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>causally related to [RO:0002410]</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
+          <t>exists at [BFO:0000108]</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>p occupies_temporal_region t. This is a primitive relation between an occurrent p and the temporal region t upon which the spatiotemporal region p occupies_spatiotemporal_region projects.</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>temporal interval</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIOR:000009</t>
+          <t>BFO:0000066</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>has abstinence period</t>
+          <t>occurs in</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>A relation that links abstinence from a behaviour to a temporal region during which this personal attribute is true</t>
+          <t>b occurs_in c =def b is a process and c is a material entity or immaterial entityand there exists a spatiotemporal region r and b occupies_spatiotemporal_region r.and forall(t) if b exists_at t then c exists_at t and there exist spatial regions s and s’ where and b spatially_projects_onto s at tand c is occupies_spatial_region s’ at tand s is a proper_continuant_part_of s’ at t</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>abstinence from a behaviour</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>abstinence duration</t>
+          <t>entity</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIOR:000010</t>
+          <t>RO:0002353</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>has behavioural attribute</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
+          <t>output of</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>output of [RO:0002353]</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>A relation that links an individual human behaviour to a behavioural attribute.</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>behavioural attribute</t>
-        </is>
-      </c>
+          <t>Inverse of has output relation</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIOR:000011</t>
+          <t>BFO:0000050</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>serves behavioural function</t>
+          <t>part of</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>realises [BFO:0000055]</t>
+          <t>overlaps [RO:0002131]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Realises the human life function of an individual human behaviour.</t>
+          <t>A core relation that holds between a part and its whole</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>human life function</t>
+          <t>entity</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIOR:000012</t>
+          <t>RO:0000056</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>has behavioural goal</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">causally influenced by [RO:0002559]
-</t>
-        </is>
-      </c>
+          <t>participates in</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>participates in [RO:0000056]</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Causally influenced by a cognitive representation of something the behaviour could bring about.</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>cognitive representation</t>
-        </is>
-      </c>
+          <t>A relation between a continuant and a process, in which the continuant is somehow involved in the process</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIOR:000013</t>
+          <t>BFO:0000054</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>has behavioural outcome</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>causal relation between entities [RO:0002506]</t>
-        </is>
-      </c>
+          <t>realised in</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>realized in [BFO:0000054]</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Causally relation between two entities in which a behaviour brings into existence, causes to occur, destroys, prevents from occurring, or changes an entity.</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
+          <t>Inverse of realizes relation.</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIOR:000014</t>
+          <t>BFO:0000055</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>is enacted by</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>has participant [RO:0000057]</t>
-        </is>
-      </c>
+          <t>realises</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>realizes [BFO:0000055]</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Has participant that relates a behaviour to the person enacting the behaviour.</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
+          <t>To say that b realizes c at t is to assert that there is some material entity d and b is a process which has participant d at t and c is a disposition or role of which d is bearer_of at tand the type instantiated by b is correlated with the type instantiated by c.</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIOR:000015</t>
+          <t>BCIOR:000011</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>uses</t>
+          <t>serves behavioural function</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>has participant [RO:0000057]</t>
+          <t>realises [BFO:0000055]</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Has participant that relates a behaviour to a material entity that the person enacting the behaviour intends to enable or facilitate the behaviour.</t>
+          <t>Realises the human life function of an individual human behaviour.</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1512,30 +1516,30 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>human life function</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIOR:000016</t>
+          <t>RO:0002223</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>has behavioural companion</t>
+          <t>starts</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>has participant [RO:0000057]</t>
+          <t>temporally related to [RO:0002222]</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Has participant that relates a behaviour to another sentient being that accompanies the person enacting the behaviour.</t>
+          <t xml:space="preserve">inverse of starts with </t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1545,40 +1549,69 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>animal</t>
+          <t>one-dimensional temporal region</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIOR:000017</t>
+          <t>BCIOR:000008</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>has behavioural target</t>
+          <t>through</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A relation that holds between an interventions mechanism of action and an entity x, in which the entity x  participates in or is part of the mechanism of action process and  is influenced by a BCI or its context such that there is some change in entity x. </t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>mechanism of action</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>BCIOR:000015</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>uses</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>has participant [RO:0000057]</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Has participant that relates the behaviour to an object that the person enacting the behaviour intends to influence.</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Has participant that relates a behaviour to a material entity that the person enacting the behaviour intends to enable or facilitate the behaviour.</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
         <is>
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>person</t>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>material entity</t>
         </is>
       </c>
     </row>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -764,7 +764,11 @@
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>relation</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>A relation that links abstinence from a behaviour to a temporal region during which this personal attribute is true</t>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -1201,13 +1201,13 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>inheres in [RO:0000052]</t>
+          <t>characteristic of [RO:0000052]</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>A relation between a specifically dependent continuant (the dependent) and an independent continuant (the bearer), in which the dependent specifically depends on the bearer for its existence</t>
+          <t>A relation between a specifically dependent continuant (the characteristic) and any other entity (the bearer), in which the characteristic depends on the bearer for its existence.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -766,7 +766,7 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>relation</t>
+          <t>participates in [RO:0000056]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -776,12 +776,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>abstinence from a behaviour</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>abstinence duration</t>
+          <t>occurrent</t>
         </is>
       </c>
     </row>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -1572,7 +1572,7 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve">A relation that holds between an interventions mechanism of action and an entity x, in which the entity x  participates in or is part of the mechanism of action process and  is influenced by a BCI or its context such that there is some change in entity x. </t>
+          <t xml:space="preserve">A relation that holds between an interventions mechanism of action and an entity x, in which the entity x  participates in or is part of the mechanism of action process and is influenced by a BCI or its context such that there is some change in entity x. </t>
         </is>
       </c>
       <c r="F39" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -512,12 +512,12 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>process</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>behaviour intention</t>
+          <t>disposition</t>
         </is>
       </c>
     </row>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>effect estimate</t>
+          <t>information content entity</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -583,7 +583,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>outcome estimate</t>
+          <t>information content entity</t>
         </is>
       </c>
     </row>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -835,7 +835,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
     </row>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -868,7 +868,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>animal</t>
+          <t>extended organism</t>
         </is>
       </c>
     </row>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -886,8 +886,7 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">causally influenced by [RO:0002559]
-</t>
+          <t>causally influenced by [RO:0002559]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -1125,7 +1125,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>research study investigator</t>
+          <t>behaviour change intervention study investigator</t>
         </is>
       </c>
     </row>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -1319,12 +1319,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>temporal interval</t>
+          <t>occurrent</t>
         </is>
       </c>
     </row>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -1519,7 +1519,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>human life function</t>
+          <t>function</t>
         </is>
       </c>
     </row>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -1576,7 +1576,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>mechanism of action</t>
+          <t>behaviour change intervention mechanism of action</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -1158,7 +1158,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>research study sample</t>
+          <t>behaviour change intervention study sample</t>
         </is>
       </c>
     </row>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -1581,7 +1581,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>entity [BFO:0000001]</t>
         </is>
       </c>
     </row>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -1158,7 +1158,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>behaviour change intervention study sample</t>
+          <t>research study sample</t>
         </is>
       </c>
     </row>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1213,83 +1213,79 @@
       <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>BCIOR:000014</t>
-        </is>
-      </c>
+      <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>is enacted by</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>has participant [RO:0000057]</t>
-        </is>
-      </c>
+          <t>is behavioural outcome of</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>inverse 'has behavioural outcome'</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Has participant that relates a behaviour to the person enacting the behaviour.</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
+          <t>Inverse of has behavioural outcome relation.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BFO:0000133</t>
+          <t>BCIOR:000014</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>is process attribute of</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>process profile of [BFO:0000133]</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>is enacted by</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>has participant [RO:0000057]</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>inverse of has_process_profile</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+          <t>Has participant that relates a behaviour to the person enacting the behaviour.</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RO:0001025</t>
+          <t>BFO:0000133</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>located in</t>
+          <t>is process attribute of</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>located in [RO:0001025]</t>
+          <t>process profile of [BFO:0000133]</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>A relation between two independent continuants, the target and the location, in which the target is entirely within the location</t>
+          <t>inverse of has_process_profile</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -1298,168 +1294,168 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BFO:0000155</t>
+          <t>RO:0001025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>occupies temporal region</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>exists at [BFO:0000108]</t>
-        </is>
-      </c>
+          <t>located in</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>located in [RO:0001025]</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>p occupies_temporal_region t. This is a primitive relation between an occurrent p and the temporal region t upon which the spatiotemporal region p occupies_spatiotemporal_region projects.</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
+          <t>A relation between two independent continuants, the target and the location, in which the target is entirely within the location</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BFO:0000066</t>
+          <t>BFO:0000155</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>occurs in</t>
+          <t>occupies temporal region</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>exists at [BFO:0000108]</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>b occurs_in c =def b is a process and c is a material entity or immaterial entityand there exists a spatiotemporal region r and b occupies_spatiotemporal_region r.and forall(t) if b exists_at t then c exists_at t and there exist spatial regions s and s’ where and b spatially_projects_onto s at tand c is occupies_spatial_region s’ at tand s is a proper_continuant_part_of s’ at t</t>
+          <t>p occupies_temporal_region t. This is a primitive relation between an occurrent p and the temporal region t upon which the spatiotemporal region p occupies_spatiotemporal_region projects.</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>occurrent</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>RO:0002353</t>
+          <t>BFO:0000066</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>output of</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>output of [RO:0002353]</t>
-        </is>
-      </c>
+          <t>occurs in</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Inverse of has output relation</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+          <t>b occurs_in c =def b is a process and c is a material entity or immaterial entityand there exists a spatiotemporal region r and b occupies_spatiotemporal_region r.and forall(t) if b exists_at t then c exists_at t and there exist spatial regions s and s’ where and b spatially_projects_onto s at tand c is occupies_spatial_region s’ at tand s is a proper_continuant_part_of s’ at t</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BFO:0000050</t>
+          <t>RO:0002353</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>part of</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>overlaps [RO:0002131]</t>
-        </is>
-      </c>
+          <t>output of</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>output of [RO:0002353]</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>A core relation that holds between a part and its whole</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
+          <t>Inverse of has output relation</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>RO:0000056</t>
+          <t>BFO:0000050</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>participates in</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>participates in [RO:0000056]</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+          <t>part of</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>overlaps [RO:0002131]</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>A relation between a continuant and a process, in which the continuant is somehow involved in the process</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+          <t>A core relation that holds between a part and its whole</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BFO:0000054</t>
+          <t>RO:0000056</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>realised in</t>
+          <t>participates in</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>realized in [BFO:0000054]</t>
+          <t>participates in [RO:0000056]</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Inverse of realizes relation.</t>
+          <t>A relation between a continuant and a process, in which the continuant is somehow involved in the process</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -1468,23 +1464,23 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BFO:0000055</t>
+          <t>BFO:0000054</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>realises</t>
+          <t>realised in</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>realizes [BFO:0000055]</t>
+          <t>realized in [BFO:0000054]</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>To say that b realizes c at t is to assert that there is some material entity d and b is a process which has participant d at t and c is a disposition or role of which d is bearer_of at tand the type instantiated by b is correlated with the type instantiated by c.</t>
+          <t>Inverse of realizes relation.</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -1493,56 +1489,48 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIOR:000011</t>
+          <t>BFO:0000055</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>serves behavioural function</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>realises [BFO:0000055]</t>
-        </is>
-      </c>
+          <t>realises</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>realizes [BFO:0000055]</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Realises the human life function of an individual human behaviour.</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>function</t>
-        </is>
-      </c>
+          <t>To say that b realizes c at t is to assert that there is some material entity d and b is a process which has participant d at t and c is a disposition or role of which d is bearer_of at tand the type instantiated by b is correlated with the type instantiated by c.</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>RO:0002223</t>
+          <t>BCIOR:000011</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>starts</t>
+          <t>serves behavioural function</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>temporally related to [RO:0002222]</t>
+          <t>realises [BFO:0000055]</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve">inverse of starts with </t>
+          <t>Realises the human life function of an individual human behaviour.</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1552,67 +1540,100 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>function</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIOR:000008</t>
+          <t>RO:0002223</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>through</t>
+          <t>starts</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>temporally related to [RO:0002222]</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve">A relation that holds between an interventions mechanism of action and an entity x, in which the entity x  participates in or is part of the mechanism of action process and is influenced by a BCI or its context such that there is some change in entity x. </t>
+          <t xml:space="preserve">inverse of starts with </t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>behaviour change intervention mechanism of action</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>entity [BFO:0000001]</t>
+          <t>one-dimensional temporal region</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>BCIOR:000008</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>through</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A relation that holds between an interventions mechanism of action and an entity x, in which the entity x  participates in or is part of the mechanism of action process and is influenced by a BCI or its context such that there is some change in entity x. </t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>behaviour change intervention mechanism of action</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>BCIOR:000015</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>uses</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
         <is>
           <t>has participant [RO:0000057]</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>Has participant that relates a behaviour to a material entity that the person enacting the behaviour intends to enable or facilitate the behaviour.</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -1213,7 +1213,11 @@
       <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>BCIOR:000018</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>is behavioural outcome of</t>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bgehrk/development/ontologies/Upper Level BCIO/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F07C4C1-0385-3A40-B387-C8C05278BF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D09D55-450D-E64C-8674-F3AD783A9FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="171">
   <si>
     <t>ID</t>
   </si>
@@ -380,9 +380,6 @@
     <t>is behavioural outcome of</t>
   </si>
   <si>
-    <t>inverse 'has behavioural outcome'</t>
-  </si>
-  <si>
     <t>Inverse of has behavioural outcome relation.</t>
   </si>
   <si>
@@ -548,7 +545,7 @@
     <t>material entity</t>
   </si>
   <si>
-    <t>Logical definition</t>
+    <t>Inverse of</t>
   </si>
 </sst>
 </file>
@@ -898,7 +895,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -929,7 +926,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1074,19 +1071,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" t="s">
         <v>162</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9" t="s">
         <v>163</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>164</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>165</v>
-      </c>
-      <c r="G9" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1128,22 +1125,22 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" t="s">
         <v>154</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>155</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>156</v>
-      </c>
-      <c r="E12" t="s">
-        <v>157</v>
       </c>
       <c r="F12" t="s">
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1188,16 +1185,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" t="s">
         <v>117</v>
-      </c>
-      <c r="B15" t="s">
-        <v>118</v>
       </c>
       <c r="D15" t="s">
         <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F15" t="s">
         <v>29</v>
@@ -1208,22 +1205,22 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" t="s">
         <v>167</v>
-      </c>
-      <c r="B16" t="s">
-        <v>168</v>
       </c>
       <c r="D16" t="s">
         <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F16" t="s">
         <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1274,24 +1271,24 @@
         <v>114</v>
       </c>
       <c r="E19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H19" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" t="s">
         <v>139</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>140</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>141</v>
-      </c>
-      <c r="E20" t="s">
-        <v>142</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -1316,41 +1313,41 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" t="s">
         <v>146</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>147</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>148</v>
-      </c>
-      <c r="E22" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" t="s">
         <v>150</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>151</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>152</v>
-      </c>
-      <c r="E23" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" t="s">
         <v>132</v>
       </c>
-      <c r="B24" t="s">
+      <c r="E24" t="s">
         <v>133</v>
-      </c>
-      <c r="E24" t="s">
-        <v>134</v>
       </c>
       <c r="F24" t="s">
         <v>29</v>
@@ -1389,30 +1386,30 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" t="s">
         <v>120</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>121</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>122</v>
-      </c>
-      <c r="E27" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" t="s">
         <v>128</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" t="s">
         <v>129</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>130</v>
-      </c>
-      <c r="E28" t="s">
-        <v>131</v>
       </c>
       <c r="F28" t="s">
         <v>54</v>
@@ -1465,16 +1462,16 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" t="s">
         <v>143</v>
-      </c>
-      <c r="B32" t="s">
-        <v>144</v>
       </c>
       <c r="C32" t="s">
         <v>51</v>
       </c>
       <c r="E32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1493,16 +1490,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" t="s">
         <v>124</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>125</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E34" t="s">
         <v>126</v>
-      </c>
-      <c r="E34" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1527,16 +1524,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" t="s">
         <v>159</v>
-      </c>
-      <c r="B36" t="s">
-        <v>160</v>
       </c>
       <c r="D36" t="s">
         <v>27</v>
       </c>
       <c r="E36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F36" t="s">
         <v>29</v>
@@ -1581,16 +1578,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" t="s">
         <v>135</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>136</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
         <v>137</v>
-      </c>
-      <c r="E39" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,12 +609,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>occurent</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>occurent</t>
+          <t>occurrent</t>
         </is>
       </c>
     </row>
@@ -673,12 +673,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>occurent</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>occurent</t>
+          <t>occurrent</t>
         </is>
       </c>
     </row>
@@ -749,71 +749,76 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIOR:000009</t>
+          <t>RO:0000053</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>has abstinence period</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>participates in [RO:0000056]</t>
+          <t>has attribute</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>bearer of [RO:0000053]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A relation that links abstinence from a behaviour to a temporal region during which this personal attribute is true</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>abstinence from a behaviour</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>abstinence duration</t>
+          <t>A relation between an independent continuant (the bearer) and a specifically dependent continuant (the dependent), in which the dependent specifically depends on the bearer for its existence</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RO:0000053</t>
+          <t>BCIOR:000016</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>has attribute</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>bearer of [RO:0000053]</t>
+          <t>has behavioural companion</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>has participant [RO:0000057]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A relation between an independent continuant (the bearer) and a specifically dependent continuant (the dependent), in which the dependent specifically depends on the bearer for its existence</t>
+          <t>Has participant that relates a behaviour to another sentient being that accompanies the person enacting the behaviour.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>extended organism</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIOR:000010</t>
+          <t>BCIOR:000012</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>has behavioural attribute</t>
+          <t>has behavioural goal</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>causally influenced by [RO:0002559]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A relation that links an individual human behaviour to a behavioural attribute.</t>
+          <t>Causally influenced by a cognitive representation of something the behaviour could bring about.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -823,29 +828,29 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t>cognitive representation</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIOR:000016</t>
+          <t>BCIOR:000013</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>has behavioural companion</t>
+          <t>has behavioural outcome</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>has participant [RO:0000057]</t>
+          <t>causal relation between entities [RO:0002506]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Has participant that relates a behaviour to another sentient being that accompanies the person enacting the behaviour.</t>
+          <t>Causally relation between two entities in which a behaviour brings into existence, causes to occur, destroys, prevents from occurring, or changes an entity.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -855,29 +860,29 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>animal</t>
+          <t>entity</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIOR:000012</t>
+          <t>BCIOR:000017</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>has behavioural goal</t>
+          <t>has behavioural target</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>causally influenced by [RO:0002559]</t>
+          <t>has participant [RO:0000057]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Causally influenced by a cognitive representation of something the behaviour could bring about.</t>
+          <t>Has participant that relates the behaviour to an object that the person enacting the behaviour intends to influence.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -887,588 +892,595 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>cognitive representation</t>
+          <t>person</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIOR:000013</t>
+          <t>RO:0000091</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>has behavioural outcome</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>causal relation between entities [RO:0002506]</t>
+          <t>has disposition</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>has disposition [RO:0000091]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Causally relation between two entities in which a behaviour brings into existence, causes to occur, destroys, prevents from occurring, or changes an entity.</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>entity</t>
+          <t>A relation between an independent continuant (the bearer) and a disposition, in which the disposition specifically depends on the bearer for its existence</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIOR:000017</t>
+          <t>RO:0002234</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>has behavioural target</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>has participant [RO:0000057]</t>
+          <t>has output</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>has output [RO:0002234]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Has participant that relates the behaviour to an object that the person enacting the behaviour intends to influence.</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>person</t>
+          <t>P has output c iff c is a participant in p, c is present at the end of p, and c is not present at the beginning of p.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>RO:0000091</t>
+          <t>BFO:0000051</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>has disposition</t>
+          <t>has part</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>has disposition [RO:0000091]</t>
+          <t>has part [BFO:0000051]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>A relation between an independent continuant (the bearer) and a disposition, in which the disposition specifically depends on the bearer for its existence</t>
+          <t>A core relation that holds between a whole and its part</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>RO:0002234</t>
+          <t>BFO:0000119</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>has output</t>
+          <t>has process attribute</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>has output [RO:0002234]</t>
+          <t>has profile [BFO:0000119]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>P has output c iff c is a participant in p, c is present at the end of p, and c is not present at the beginning of p.</t>
+          <t>Inverse of process_profile_of</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BFO:0000051</t>
+          <t>BFO:0000117</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>has part</t>
+          <t>has process part</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>has part [BFO:0000051]</t>
+          <t>has occurrent part [BFO:0000117]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A core relation that holds between a whole and its part</t>
+          <t>Inverse of occurrent_part_of which is defined as: b occurrent_part_of c =Def. b is a part of c and b and c are occurrents.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BFO:0000119</t>
+          <t>BCIOR:000002</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>has process attribute</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>has profile [BFO:0000119]</t>
+          <t>has study investigator</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>has participant [RO:0000057]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Inverse of process_profile_of</t>
+          <t>A relation that holds between a study and the study investigator for that study</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>research study</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>behaviour change intervention study investigator</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BFO:0000117</t>
+          <t>BCIOR:000001</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>has process part</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>has occurrent part [BFO:0000117]</t>
+          <t>has study sample</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>has participant [RO:0000057]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Inverse of occurrent_part_of which is defined as: b occurrent_part_of c =Def. b is a part of c and b and c are occurrents.</t>
+          <t>A relation that holds between a study and the study sample for that study</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>research study</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>research study sample</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIOR:000002</t>
+          <t>IAO:0000136</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>has study investigator</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>has participant [RO:0000057]</t>
+          <t>is about</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>is about [IAO:0000136]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>A relation that holds between a study and the study investigator for that study</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>research study</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>behaviour change intervention study investigator</t>
+          <t>Is about is a (currently) primitive relation that relates an information artifact to an entity.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIOR:000001</t>
+          <t>RO:0000052</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>has study sample</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>has participant [RO:0000057]</t>
+          <t>is attribute of</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>characteristic of [RO:0000052]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>A relation that holds between a study and the study sample for that study</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>research study</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>research study sample</t>
+          <t>A relation between a specifically dependent continuant (the characteristic) and any other entity (the bearer), in which the characteristic depends on the bearer for its existence.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>IAO:0000136</t>
+          <t>BCIOR:000018</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>is about</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>is about [IAO:0000136]</t>
+          <t>is behavioural outcome of</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Is about is a (currently) primitive relation that relates an information artifact to an entity.</t>
+          <t>Inverse of has behavioural outcome relation.</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>has behavioural outcome</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>RO:0000052</t>
+          <t>BCIOR:000014</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>is attribute of</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>characteristic of [RO:0000052]</t>
+          <t>is enacted by</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>has participant [RO:0000057]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>A relation between a specifically dependent continuant (the characteristic) and any other entity (the bearer), in which the characteristic depends on the bearer for its existence.</t>
+          <t>Has participant that relates a behaviour to the person enacting the behaviour.</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>person</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIOR:000018</t>
+          <t>BFO:0000133</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>is behavioural outcome of</t>
+          <t>is process attribute of</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>process profile of [BFO:0000133]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Inverse of has behavioural outcome relation.</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>has behavioural outcome</t>
+          <t>inverse of has_process_profile</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIOR:000014</t>
+          <t>RO:0001025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>is enacted by</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>has participant [RO:0000057]</t>
+          <t>located in</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>located in [RO:0001025]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Has participant that relates a behaviour to the person enacting the behaviour.</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>person</t>
+          <t>A relation between two independent continuants, the target and the location, in which the target is entirely within the location</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BFO:0000133</t>
+          <t>BFO:0000155</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>is process attribute of</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>process profile of [BFO:0000133]</t>
+          <t>occupies temporal region</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>exists at [BFO:0000108]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>inverse of has_process_profile</t>
+          <t>p occupies_temporal_region t. This is a primitive relation between an occurrent p and the temporal region t upon which the spatiotemporal region p occupies_spatiotemporal_region projects.</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>occurrent</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>RO:0001025</t>
+          <t>BFO:0000066</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>located in</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>located in [RO:0001025]</t>
+          <t>occurs in</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>A relation between two independent continuants, the target and the location, in which the target is entirely within the location</t>
+          <t>b occurs_in c =def b is a process and c is a material entity or immaterial entityand there exists a spatiotemporal region r and b occupies_spatiotemporal_region r.and forall(t) if b exists_at t then c exists_at t and there exist spatial regions s and s’ where and b spatially_projects_onto s at tand c is occupies_spatial_region s’ at tand s is a proper_continuant_part_of s’ at t</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>independent continuant</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BFO:0000155</t>
+          <t>RO:0002353</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>occupies temporal region</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>exists at [BFO:0000108]</t>
+          <t>output of</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>output of [RO:0002353]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>p occupies_temporal_region t. This is a primitive relation between an occurrent p and the temporal region t upon which the spatiotemporal region p occupies_spatiotemporal_region projects.</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>occurrent</t>
+          <t>Inverse of has output relation</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BFO:0000066</t>
+          <t>BFO:0000050</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>occurs in</t>
+          <t>part of</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>overlaps [RO:0002131]</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>b occurs_in c =def b is a process and c is a material entity or immaterial entityand there exists a spatiotemporal region r and b occupies_spatiotemporal_region r.and forall(t) if b exists_at t then c exists_at t and there exist spatial regions s and s’ where and b spatially_projects_onto s at tand c is occupies_spatial_region s’ at tand s is a proper_continuant_part_of s’ at t</t>
+          <t>A core relation that holds between a part and its whole</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>occurrent</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>independent continuant</t>
+          <t>entity</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>RO:0002353</t>
+          <t>RO:0000056</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>output of</t>
+          <t>participates in</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>output of [RO:0002353]</t>
+          <t>participates in [RO:0000056]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Inverse of has output relation</t>
-        </is>
-      </c>
+          <t>A relation between a continuant and a process, in which the continuant is somehow involved in the process</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BFO:0000050</t>
+          <t>BFO:0000054</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>part of</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>overlaps [RO:0002131]</t>
+          <t>realised in</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>realized in [BFO:0000054]</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>A core relation that holds between a part and its whole</t>
+          <t>Inverse of realizes relation.</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>occurrent</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>RO:0000056</t>
+          <t>BFO:0000055</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>participates in</t>
+          <t>realises</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>participates in [RO:0000056]</t>
+          <t>realizes [BFO:0000055]</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>A relation between a continuant and a process, in which the continuant is somehow involved in the process</t>
-        </is>
-      </c>
+          <t>To say that b realizes c at t is to assert that there is some material entity d and b is a process which has participant d at t and c is a disposition or role of which d is bearer_of at tand the type instantiated by b is correlated with the type instantiated by c.</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BFO:0000054</t>
+          <t>RO:0002223</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>realised in</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>realized in [BFO:0000054]</t>
+          <t>starts</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>temporally related to [RO:0002222]</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Inverse of realizes relation.</t>
+          <t xml:space="preserve">inverse of starts with </t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>occurrent</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BFO:0000055</t>
+          <t>BCIOR:000008</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>realises</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>realizes [BFO:0000055]</t>
+          <t>through</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>To say that b realizes c at t is to assert that there is some material entity d and b is a process which has participant d at t and c is a disposition or role of which d is bearer_of at tand the type instantiated by b is correlated with the type instantiated by c.</t>
+          <t xml:space="preserve">A relation that holds between an interventions mechanism of action and an entity x, in which the entity x  participates in or is part of the mechanism of action process and is influenced by a BCI or its context such that there is some change in entity x. </t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>behaviour change intervention mechanism of action</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIOR:000011</t>
+          <t>BCIOR:000015</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>serves behavioural function</t>
+          <t>uses</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>realises [BFO:0000055]</t>
+          <t>has participant [RO:0000057]</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Realises the human life function of an individual human behaviour.</t>
+          <t>Has participant that relates a behaviour to a material entity that the person enacting the behaviour intends to enable or facilitate the behaviour.</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1477,97 +1489,6 @@
         </is>
       </c>
       <c r="G38" t="inlineStr">
-        <is>
-          <t>human life function</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>RO:0002223</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>starts</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>temporally related to [RO:0002222]</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">inverse of starts with </t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>occurent</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>occurent</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>BCIOR:000008</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>through</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A relation that holds between an interventions mechanism of action and an entity x, in which the entity x  participates in or is part of the mechanism of action process and is influenced by a BCI or its context such that there is some change in entity x. </t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>behaviour change intervention mechanism of action</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>entity [BFO:0000001]</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>BCIOR:000015</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>uses</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>has participant [RO:0000057]</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Has participant that relates a behaviour to a material entity that the person enacting the behaviour intends to enable or facilitate the behaviour.</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,108 +589,108 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RO:0002229</t>
+          <t>BCIOR:000005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ends</t>
+          <t>evaluates</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>temporally related to [RO:0002222]</t>
+          <t>is about [IAO:0000136]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>inverse of ends with</t>
+          <t>A relation that holds between an evaluation study and the scenario that it is evaluating</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>occurrent</t>
+          <t>research study</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>occurrent</t>
+          <t>entity</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIOR:000005</t>
+          <t>RO:0002092</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>evaluates</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>is about [IAO:0000136]</t>
+          <t>happens during</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>happens during [RO:0002092]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A relation that holds between an evaluation study and the scenario that it is evaluating</t>
+          <t>X happens_during Y iff: (start(Y) before_or_simultaneous_with start(X)) AND (end(X) before_or_simultaneous_with end(Y))</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>research study</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>occurrent</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RO:0002092</t>
+          <t>BCIOR:000004</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>happens during</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>happens during [RO:0002092]</t>
+          <t>has BCI context</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>has participant [RO:0000057]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>X happens_during Y iff: (start(Y) before_or_simultaneous_with start(X)) AND (end(X) before_or_simultaneous_with end(Y))</t>
+          <t>A relation that holds between a behaviour change intervention scenario and the context of the scenario</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>occurrent</t>
+          <t>behaviour change intervention scenario</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>occurrent</t>
+          <t>behaviour change intervention context</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIOR:000004</t>
+          <t>BCIOR:000003</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>has BCI context</t>
+          <t>has BCI source</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -700,93 +700,93 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A relation that holds between a behaviour change intervention scenario and the context of the scenario</t>
+          <t>A relation that holds between a behaviour change intervention delivery and the source who performs the delivery</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>behaviour change intervention scenario</t>
+          <t>behaviour change intervention delivery</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>behaviour change intervention context</t>
+          <t>behaviour change intervention source</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIOR:000003</t>
+          <t>RO:0000053</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>has BCI source</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>has participant [RO:0000057]</t>
+          <t>has attribute</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>bearer of [RO:0000053]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A relation that holds between a behaviour change intervention delivery and the source who performs the delivery</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>behaviour change intervention delivery</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>behaviour change intervention source</t>
+          <t>A relation between an independent continuant (the bearer) and a specifically dependent continuant (the dependent), in which the dependent specifically depends on the bearer for its existence</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RO:0000053</t>
+          <t>BCIOR:000016</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>has attribute</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>bearer of [RO:0000053]</t>
+          <t>has behavioural companion</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>has participant [RO:0000057]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A relation between an independent continuant (the bearer) and a specifically dependent continuant (the dependent), in which the dependent specifically depends on the bearer for its existence</t>
+          <t>Has participant that relates a behaviour to another sentient being that accompanies the person enacting the behaviour.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>extended organism</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIOR:000016</t>
+          <t>BCIOR:000012</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>has behavioural companion</t>
+          <t>has behavioural goal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>has participant [RO:0000057]</t>
+          <t>causally influenced by [RO:0002559]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Has participant that relates a behaviour to another sentient being that accompanies the person enacting the behaviour.</t>
+          <t>Causally influenced by a cognitive representation of something the behaviour could bring about.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -796,29 +796,29 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>extended organism</t>
+          <t>cognitive representation</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIOR:000012</t>
+          <t>BCIOR:000013</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>has behavioural goal</t>
+          <t>has behavioural outcome</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>causally influenced by [RO:0002559]</t>
+          <t>causal relation between entities [RO:0002506]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Causally influenced by a cognitive representation of something the behaviour could bring about.</t>
+          <t>Causally relation between two entities in which a behaviour brings into existence, causes to occur, destroys, prevents from occurring, or changes an entity.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -828,29 +828,29 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>cognitive representation</t>
+          <t>entity</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIOR:000013</t>
+          <t>BCIOR:000017</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>has behavioural outcome</t>
+          <t>has behavioural target</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>causal relation between entities [RO:0002506]</t>
+          <t>has participant [RO:0000057]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Causally relation between two entities in which a behaviour brings into existence, causes to occur, destroys, prevents from occurring, or changes an entity.</t>
+          <t>Has participant that relates the behaviour to an object that the person enacting the behaviour intends to influence.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -860,161 +860,161 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>person</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIOR:000017</t>
+          <t>RO:0000091</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>has behavioural target</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>has participant [RO:0000057]</t>
+          <t>has disposition</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>has disposition [RO:0000091]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Has participant that relates the behaviour to an object that the person enacting the behaviour intends to influence.</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>person</t>
+          <t>A relation between an independent continuant (the bearer) and a disposition, in which the disposition specifically depends on the bearer for its existence</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RO:0000091</t>
+          <t>RO:0002234</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>has disposition</t>
+          <t>has output</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>has disposition [RO:0000091]</t>
+          <t>has output [RO:0002234]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>A relation between an independent continuant (the bearer) and a disposition, in which the disposition specifically depends on the bearer for its existence</t>
+          <t>P has output c iff c is a participant in p, c is present at the end of p, and c is not present at the beginning of p.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>RO:0002234</t>
+          <t>BFO:0000051</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>has output</t>
+          <t>has part</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>has output [RO:0002234]</t>
+          <t>has part [BFO:0000051]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>P has output c iff c is a participant in p, c is present at the end of p, and c is not present at the beginning of p.</t>
+          <t>A core relation that holds between a whole and its part</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BFO:0000051</t>
+          <t>BFO:0000119</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>has part</t>
+          <t>has process attribute</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>has part [BFO:0000051]</t>
+          <t>has profile [BFO:0000119]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>A core relation that holds between a whole and its part</t>
+          <t>Inverse of process_profile_of</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BFO:0000119</t>
+          <t>BFO:0000117</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>has process attribute</t>
+          <t>has process part</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>has profile [BFO:0000119]</t>
+          <t>has occurrent part [BFO:0000117]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Inverse of process_profile_of</t>
+          <t>Inverse of occurrent_part_of which is defined as: b occurrent_part_of c =Def. b is a part of c and b and c are occurrents.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BFO:0000117</t>
+          <t>BCIOR:000002</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>has process part</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>has occurrent part [BFO:0000117]</t>
+          <t>has study investigator</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>has participant [RO:0000057]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Inverse of occurrent_part_of which is defined as: b occurrent_part_of c =Def. b is a part of c and b and c are occurrents.</t>
+          <t>A relation that holds between a study and the study investigator for that study</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>research study</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>behaviour change intervention study investigator</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIOR:000002</t>
+          <t>BCIOR:000001</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>has study investigator</t>
+          <t>has study sample</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A relation that holds between a study and the study investigator for that study</t>
+          <t>A relation that holds between a study and the study sample for that study</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1034,203 +1034,198 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>behaviour change intervention study investigator</t>
+          <t>research study sample</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIOR:000001</t>
+          <t>IAO:0000136</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>has study sample</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>has participant [RO:0000057]</t>
+          <t>is about</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>is about [IAO:0000136]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>A relation that holds between a study and the study sample for that study</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>research study</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>research study sample</t>
+          <t>Is about is a (currently) primitive relation that relates an information artifact to an entity.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>IAO:0000136</t>
+          <t>RO:0000052</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>is about</t>
+          <t>is attribute of</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>is about [IAO:0000136]</t>
+          <t>characteristic of [RO:0000052]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Is about is a (currently) primitive relation that relates an information artifact to an entity.</t>
+          <t>A relation between a specifically dependent continuant (the characteristic) and any other entity (the bearer), in which the characteristic depends on the bearer for its existence.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>RO:0000052</t>
+          <t>BCIOR:000018</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>is attribute of</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>characteristic of [RO:0000052]</t>
+          <t>is behavioural outcome of</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>A relation between a specifically dependent continuant (the characteristic) and any other entity (the bearer), in which the characteristic depends on the bearer for its existence.</t>
+          <t>Inverse of has behavioural outcome relation.</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>has behavioural outcome</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIOR:000018</t>
+          <t>BCIOR:000014</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>is behavioural outcome of</t>
+          <t>is enacted by</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>has participant [RO:0000057]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Inverse of has behavioural outcome relation.</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>has behavioural outcome</t>
+          <t>Has participant that relates a behaviour to the person enacting the behaviour.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>person</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIOR:000014</t>
+          <t>BFO:0000133</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>is enacted by</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>has participant [RO:0000057]</t>
+          <t>is process attribute of</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>process profile of [BFO:0000133]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Has participant that relates a behaviour to the person enacting the behaviour.</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>person</t>
+          <t>inverse of has_process_profile</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BFO:0000133</t>
+          <t>RO:0001025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>is process attribute of</t>
+          <t>located in</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>process profile of [BFO:0000133]</t>
+          <t>located in [RO:0001025]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>inverse of has_process_profile</t>
+          <t>A relation between two independent continuants, the target and the location, in which the target is entirely within the location</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>RO:0001025</t>
+          <t>BFO:0000155</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>located in</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>located in [RO:0001025]</t>
+          <t>occupies temporal region</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>exists at [BFO:0000108]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>A relation between two independent continuants, the target and the location, in which the target is entirely within the location</t>
+          <t>p occupies_temporal_region t. This is a primitive relation between an occurrent p and the temporal region t upon which the spatiotemporal region p occupies_spatiotemporal_region projects.</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>occurrent</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BFO:0000155</t>
+          <t>BFO:0000066</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>occupies temporal region</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>exists at [BFO:0000108]</t>
+          <t>occurs in</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>p occupies_temporal_region t. This is a primitive relation between an occurrent p and the temporal region t upon which the spatiotemporal region p occupies_spatiotemporal_region projects.</t>
+          <t>b occurs_in c =def b is a process and c is a material entity or immaterial entityand there exists a spatiotemporal region r and b occupies_spatiotemporal_region r.and forall(t) if b exists_at t then c exists_at t and there exist spatial regions s and s’ where and b spatially_projects_onto s at tand c is occupies_spatial_region s’ at tand s is a proper_continuant_part_of s’ at t</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1240,255 +1235,194 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>occurrent</t>
+          <t>independent continuant</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BFO:0000066</t>
+          <t>RO:0002353</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>occurs in</t>
+          <t>output of</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>output of [RO:0002353]</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>b occurs_in c =def b is a process and c is a material entity or immaterial entityand there exists a spatiotemporal region r and b occupies_spatiotemporal_region r.and forall(t) if b exists_at t then c exists_at t and there exist spatial regions s and s’ where and b spatially_projects_onto s at tand c is occupies_spatial_region s’ at tand s is a proper_continuant_part_of s’ at t</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>independent continuant</t>
+          <t>Inverse of has output relation</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>RO:0002353</t>
+          <t>BFO:0000050</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>output of</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>output of [RO:0002353]</t>
+          <t>part of</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>overlaps [RO:0002131]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Inverse of has output relation</t>
+          <t>A core relation that holds between a part and its whole</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>entity</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BFO:0000050</t>
+          <t>RO:0000056</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>part of</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>overlaps [RO:0002131]</t>
+          <t>participates in</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>participates in [RO:0000056]</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>A core relation that holds between a part and its whole</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>entity</t>
+          <t>A relation between a continuant and a process, in which the continuant is somehow involved in the process</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>RO:0000056</t>
+          <t>BFO:0000054</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>participates in</t>
+          <t>realised in</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>participates in [RO:0000056]</t>
+          <t>realized in [BFO:0000054]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>A relation between a continuant and a process, in which the continuant is somehow involved in the process</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
+          <t>Inverse of realizes relation.</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BFO:0000054</t>
+          <t>BFO:0000055</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>realised in</t>
+          <t>realises</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>realized in [BFO:0000054]</t>
+          <t>realizes [BFO:0000055]</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Inverse of realizes relation.</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>occurrent</t>
+          <t>To say that b realizes c at t is to assert that there is some material entity d and b is a process which has participant d at t and c is a disposition or role of which d is bearer_of at tand the type instantiated by b is correlated with the type instantiated by c.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BFO:0000055</t>
+          <t>BCIOR:000008</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>realises</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>realizes [BFO:0000055]</t>
+          <t>through</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>To say that b realizes c at t is to assert that there is some material entity d and b is a process which has participant d at t and c is a disposition or role of which d is bearer_of at tand the type instantiated by b is correlated with the type instantiated by c.</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
+          <t xml:space="preserve">A relation that holds between an interventions mechanism of action and an entity x, in which the entity x  participates in or is part of the mechanism of action process and is influenced by a BCI or its context such that there is some change in entity x. </t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>behaviour change intervention mechanism of action</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>RO:0002223</t>
+          <t>BCIOR:000015</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>starts</t>
+          <t>uses</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>temporally related to [RO:0002222]</t>
+          <t>has participant [RO:0000057]</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve">inverse of starts with </t>
+          <t>Has participant that relates a behaviour to a material entity that the person enacting the behaviour intends to enable or facilitate the behaviour.</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>occurrent</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>BCIOR:000008</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>through</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A relation that holds between an interventions mechanism of action and an entity x, in which the entity x  participates in or is part of the mechanism of action process and is influenced by a BCI or its context such that there is some change in entity x. </t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>behaviour change intervention mechanism of action</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>entity [BFO:0000001]</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>BCIOR:000015</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>uses</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>has participant [RO:0000057]</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Has participant that relates a behaviour to a material entity that the person enacting the behaviour intends to enable or facilitate the behaviour.</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -887,542 +887,602 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>RO:0002234</t>
-        </is>
-      </c>
+      <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>has output</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>has output [RO:0002234]</t>
+          <t>has end time</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>temporally related to [RO:0002222]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>P has output c iff c is a participant in p, c is present at the end of p, and c is not present at the beginning of p.</t>
-        </is>
-      </c>
+          <t>A relation between a one-dimensional temporal entity and an occurent x such that the one-dimensional temporal entity designates the latest boundary of x's existence or manifestation.</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>occurent</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BFO:0000051</t>
+          <t>RO:0002234</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>has part</t>
+          <t>has output</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>has part [BFO:0000051]</t>
+          <t>has output [RO:0002234]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>A core relation that holds between a whole and its part</t>
+          <t>P has output c iff c is a participant in p, c is present at the end of p, and c is not present at the beginning of p.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BFO:0000119</t>
+          <t>BFO:0000051</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>has process attribute</t>
+          <t>has part</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>has profile [BFO:0000119]</t>
+          <t>has part [BFO:0000051]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Inverse of process_profile_of</t>
+          <t>A core relation that holds between a whole and its part</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BFO:0000117</t>
+          <t>BFO:0000119</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>has process part</t>
+          <t>has process attribute</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>has occurrent part [BFO:0000117]</t>
+          <t>has profile [BFO:0000119]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Inverse of occurrent_part_of which is defined as: b occurrent_part_of c =Def. b is a part of c and b and c are occurrents.</t>
+          <t>Inverse of process_profile_of</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIOR:000002</t>
+          <t>BFO:0000117</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>has study investigator</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>has participant [RO:0000057]</t>
+          <t>has process part</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>has occurrent part [BFO:0000117]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A relation that holds between a study and the study investigator for that study</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>research study</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>behaviour change intervention study investigator</t>
+          <t>Inverse of occurrent_part_of which is defined as: b occurrent_part_of c =Def. b is a part of c and b and c are occurrents.</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>BCIOR:000001</t>
-        </is>
-      </c>
+      <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
-          <t>has study sample</t>
-        </is>
-      </c>
+          <t>has start time</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>has participant [RO:0000057]</t>
+          <t>temporally related to [RO:0002222]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A relation that holds between a study and the study sample for that study</t>
+          <t>A relation between a one-dimensional temporal entity and an occurent x such that the one-dimensional temporal entity designates the earliest boundary of x's existence or manifestation.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>research study</t>
+          <t>occurent</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>research study sample</t>
-        </is>
-      </c>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>IAO:0000136</t>
+          <t>BCIOR:000002</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>is about</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>is about [IAO:0000136]</t>
+          <t>has study investigator</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>has participant [RO:0000057]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Is about is a (currently) primitive relation that relates an information artifact to an entity.</t>
+          <t>A relation that holds between a study and the study investigator for that study</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>research study</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>behaviour change intervention study investigator</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>RO:0000052</t>
+          <t>BCIOR:000001</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>is attribute of</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>characteristic of [RO:0000052]</t>
+          <t>has study sample</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>has participant [RO:0000057]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>A relation between a specifically dependent continuant (the characteristic) and any other entity (the bearer), in which the characteristic depends on the bearer for its existence.</t>
+          <t>A relation that holds between a study and the study sample for that study</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>research study</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>research study sample</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIOR:000018</t>
+          <t>IAO:0000136</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>is behavioural outcome of</t>
+          <t>is about</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>is about [IAO:0000136]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Inverse of has behavioural outcome relation.</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>has behavioural outcome</t>
+          <t>Is about is a (currently) primitive relation that relates an information artifact to an entity.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIOR:000014</t>
+          <t>RO:0000052</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>is enacted by</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>has participant [RO:0000057]</t>
+          <t>is attribute of</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>characteristic of [RO:0000052]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Has participant that relates a behaviour to the person enacting the behaviour.</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>person</t>
+          <t>A relation between a specifically dependent continuant (the characteristic) and any other entity (the bearer), in which the characteristic depends on the bearer for its existence.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BFO:0000133</t>
+          <t>BCIOR:000018</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>is process attribute of</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>process profile of [BFO:0000133]</t>
+          <t>is behavioural outcome of</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>inverse of has_process_profile</t>
+          <t>Inverse of has behavioural outcome relation.</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>has behavioural outcome</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>RO:0001025</t>
+          <t>BCIOR:000014</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>located in</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>located in [RO:0001025]</t>
+          <t>is enacted by</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>has participant [RO:0000057]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>A relation between two independent continuants, the target and the location, in which the target is entirely within the location</t>
+          <t>Has participant that relates a behaviour to the person enacting the behaviour.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>person</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BFO:0000155</t>
+          <t>BFO:0000133</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>occupies temporal region</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>exists at [BFO:0000108]</t>
+          <t>is process attribute of</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>process profile of [BFO:0000133]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>p occupies_temporal_region t. This is a primitive relation between an occurrent p and the temporal region t upon which the spatiotemporal region p occupies_spatiotemporal_region projects.</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>occurrent</t>
+          <t>inverse of has_process_profile</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BFO:0000066</t>
+          <t>RO:0001025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>occurs in</t>
+          <t>located in</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>located in [RO:0001025]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>b occurs_in c =def b is a process and c is a material entity or immaterial entityand there exists a spatiotemporal region r and b occupies_spatiotemporal_region r.and forall(t) if b exists_at t then c exists_at t and there exist spatial regions s and s’ where and b spatially_projects_onto s at tand c is occupies_spatial_region s’ at tand s is a proper_continuant_part_of s’ at t</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>independent continuant</t>
+          <t>A relation between two independent continuants, the target and the location, in which the target is entirely within the location</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>RO:0002353</t>
+          <t>BFO:0000155</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>output of</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>output of [RO:0002353]</t>
+          <t>occupies temporal region</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>exists at [BFO:0000108]</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Inverse of has output relation</t>
+          <t>p occupies_temporal_region t. This is a primitive relation between an occurrent p and the temporal region t upon which the spatiotemporal region p occupies_spatiotemporal_region projects.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>occurrent</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BFO:0000050</t>
+          <t>BFO:0000066</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>part of</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>overlaps [RO:0002131]</t>
+          <t>occurs in</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>A core relation that holds between a part and its whole</t>
+          <t>b occurs_in c =def b is a process and c is a material entity or immaterial entityand there exists a spatiotemporal region r and b occupies_spatiotemporal_region r.and forall(t) if b exists_at t then c exists_at t and there exist spatial regions s and s’ where and b spatially_projects_onto s at tand c is occupies_spatial_region s’ at tand s is a proper_continuant_part_of s’ at t</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>independent continuant</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>RO:0000056</t>
+          <t>RO:0002353</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>participates in</t>
+          <t>output of</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>participates in [RO:0000056]</t>
+          <t>output of [RO:0002353]</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>A relation between a continuant and a process, in which the continuant is somehow involved in the process</t>
+          <t>Inverse of has output relation</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BFO:0000054</t>
+          <t>BFO:0000050</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>realised in</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>realized in [BFO:0000054]</t>
+          <t>part of</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>overlaps [RO:0002131]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Inverse of realizes relation.</t>
+          <t>A core relation that holds between a part and its whole</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>occurrent</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>occurrent</t>
+          <t>entity</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BFO:0000055</t>
+          <t>RO:0000056</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>realises</t>
+          <t>participates in</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>realizes [BFO:0000055]</t>
+          <t>participates in [RO:0000056]</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>To say that b realizes c at t is to assert that there is some material entity d and b is a process which has participant d at t and c is a disposition or role of which d is bearer_of at tand the type instantiated by b is correlated with the type instantiated by c.</t>
+          <t>A relation between a continuant and a process, in which the continuant is somehow involved in the process</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIOR:000008</t>
+          <t>BFO:0000054</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>through</t>
+          <t>realised in</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>realized in [BFO:0000054]</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve">A relation that holds between an interventions mechanism of action and an entity x, in which the entity x  participates in or is part of the mechanism of action process and is influenced by a BCI or its context such that there is some change in entity x. </t>
+          <t>Inverse of realizes relation.</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>behaviour change intervention mechanism of action</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>entity [BFO:0000001]</t>
+          <t>occurrent</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>BFO:0000055</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>realises</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>realizes [BFO:0000055]</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>To say that b realizes c at t is to assert that there is some material entity d and b is a process which has participant d at t and c is a disposition or role of which d is bearer_of at tand the type instantiated by b is correlated with the type instantiated by c.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>BCIOR:000008</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>through</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A relation that holds between an interventions mechanism of action and an entity x, in which the entity x  participates in or is part of the mechanism of action process and is influenced by a BCI or its context such that there is some change in entity x. </t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>behaviour change intervention mechanism of action</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>BCIOR:000015</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>uses</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>has participant [RO:0000057]</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>Has participant that relates a behaviour to a material entity that the person enacting the behaviour intends to enable or facilitate the behaviour.</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -893,7 +893,6 @@
           <t>has end time</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
           <t>temporally related to [RO:0002222]</t>
@@ -906,7 +905,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>occurent</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -914,7 +913,6 @@
           <t>occurrent</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1005,13 +1003,11 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
           <t>has start time</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
           <t>temporally related to [RO:0002222]</t>
@@ -1024,7 +1020,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>occurent</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1032,7 +1028,6 @@
           <t>occurrent</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -887,7 +887,11 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>BCIOR:000019</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>has end time</t>
@@ -1003,6 +1007,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>BCIOR:000020</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>has start time</t>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -904,7 +904,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>A relation between a one-dimensional temporal entity and an occurent x such that the one-dimensional temporal entity designates the latest boundary of x's existence or manifestation.</t>
+          <t>A relation between an occurrent x and a one-dimensional temporal entity such that the one-dimensional temporal entity designates the latest boundary of x's existence or manifestation.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A relation between a one-dimensional temporal entity and an occurent x such that the one-dimensional temporal entity designates the earliest boundary of x's existence or manifestation.</t>
+          <t>A relation between an occurrent x and a one-dimensional temporal entity such that the one-dimensional temporal entity designates the earliest boundary of x's existence or manifestation.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -535,7 +535,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>is about [IAO:0000136]</t>
+          <t>has input</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -599,7 +599,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>is about [IAO:0000136]</t>
+          <t>has input</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -535,7 +535,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>has input</t>
+          <t>has input [RO:0002233]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -599,7 +599,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>has input</t>
+          <t>has input [RO:0002233]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -535,7 +535,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>has input [RO:0002233]</t>
+          <t>is about [IAO:0000136]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -599,7 +599,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>has input [RO:0002233]</t>
+          <t>is about [IAO:0000136]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,7 +535,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>is about [IAO:0000136]</t>
+          <t>has input [RO:0002233]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -599,7 +599,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>is about [IAO:0000136]</t>
+          <t>has input [RO:0002233]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -921,164 +921,158 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>RO:0002234</t>
+          <t>RO:0002233</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>has output</t>
+          <t>has input</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>has output [RO:0002234]</t>
-        </is>
-      </c>
+          <t>has input [RO:0002233]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>P has output c iff c is a participant in p, c is present at the end of p, and c is not present at the beginning of p.</t>
-        </is>
-      </c>
+          <t>p has input c iff: p is a process, c is a material entity, c is a participant in p, c is present at the start of p, and the state of c is modified during p.</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BFO:0000051</t>
+          <t>RO:0002234</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>has part</t>
+          <t>has output</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>has part [BFO:0000051]</t>
+          <t>has output [RO:0002234]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>A core relation that holds between a whole and its part</t>
+          <t>P has output c iff c is a participant in p, c is present at the end of p, and c is not present at the beginning of p.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BFO:0000119</t>
+          <t>BFO:0000051</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>has process attribute</t>
+          <t>has part</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>has profile [BFO:0000119]</t>
+          <t>has part [BFO:0000051]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Inverse of process_profile_of</t>
+          <t>A core relation that holds between a whole and its part</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BFO:0000117</t>
+          <t>BFO:0000119</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>has process part</t>
+          <t>has process attribute</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>has occurrent part [BFO:0000117]</t>
+          <t>has profile [BFO:0000119]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Inverse of occurrent_part_of which is defined as: b occurrent_part_of c =Def. b is a part of c and b and c are occurrents.</t>
+          <t>Inverse of process_profile_of</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIOR:000020</t>
+          <t>BFO:0000117</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>has start time</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>temporally related to [RO:0002222]</t>
+          <t>has process part</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>has occurrent part [BFO:0000117]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A relation between an occurrent x and a one-dimensional temporal entity such that the one-dimensional temporal entity designates the earliest boundary of x's existence or manifestation.</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>occurrent</t>
+          <t>Inverse of occurrent_part_of which is defined as: b occurrent_part_of c =Def. b is a part of c and b and c are occurrents.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIOR:000002</t>
+          <t>BCIOR:000020</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>has study investigator</t>
+          <t>has start time</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>has participant [RO:0000057]</t>
+          <t>temporally related to [RO:0002222]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>A relation that holds between a study and the study investigator for that study</t>
+          <t>A relation between an occurrent x and a one-dimensional temporal entity such that the one-dimensional temporal entity designates the earliest boundary of x's existence or manifestation.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>research study</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>behaviour change intervention study investigator</t>
+          <t>occurrent</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIOR:000001</t>
+          <t>BCIOR:000002</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>has study sample</t>
+          <t>has study investigator</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1088,7 +1082,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>A relation that holds between a study and the study sample for that study</t>
+          <t>A relation that holds between a study and the study investigator for that study</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1098,198 +1092,203 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>research study sample</t>
+          <t>behaviour change intervention study investigator</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>IAO:0000136</t>
+          <t>BCIOR:000001</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>is about</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>is about [IAO:0000136]</t>
+          <t>has study sample</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>has participant [RO:0000057]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Is about is a (currently) primitive relation that relates an information artifact to an entity.</t>
+          <t>A relation that holds between a study and the study sample for that study</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>research study</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>research study sample</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>RO:0000052</t>
+          <t>IAO:0000136</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>is attribute of</t>
+          <t>is about</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>characteristic of [RO:0000052]</t>
+          <t>is about [IAO:0000136]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>A relation between a specifically dependent continuant (the characteristic) and any other entity (the bearer), in which the characteristic depends on the bearer for its existence.</t>
+          <t>Is about is a (currently) primitive relation that relates an information artifact to an entity.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIOR:000018</t>
+          <t>RO:0000052</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>is behavioural outcome of</t>
+          <t>is attribute of</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>characteristic of [RO:0000052]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Inverse of has behavioural outcome relation.</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>has behavioural outcome</t>
+          <t>A relation between a specifically dependent continuant (the characteristic) and any other entity (the bearer), in which the characteristic depends on the bearer for its existence.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIOR:000014</t>
+          <t>BCIOR:000018</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>is enacted by</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>has participant [RO:0000057]</t>
+          <t>is behavioural outcome of</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Has participant that relates a behaviour to the person enacting the behaviour.</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>person</t>
+          <t>Inverse of has behavioural outcome relation.</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>has behavioural outcome</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BFO:0000133</t>
+          <t>BCIOR:000014</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>is process attribute of</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>process profile of [BFO:0000133]</t>
+          <t>is enacted by</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>has participant [RO:0000057]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>inverse of has_process_profile</t>
+          <t>Has participant that relates a behaviour to the person enacting the behaviour.</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>person</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RO:0001025</t>
+          <t>BFO:0000133</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>located in</t>
+          <t>is process attribute of</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>located in [RO:0001025]</t>
+          <t>process profile of [BFO:0000133]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>A relation between two independent continuants, the target and the location, in which the target is entirely within the location</t>
+          <t>inverse of has_process_profile</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BFO:0000155</t>
+          <t>RO:0001025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>occupies temporal region</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>exists at [BFO:0000108]</t>
+          <t>located in</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>located in [RO:0001025]</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>p occupies_temporal_region t. This is a primitive relation between an occurrent p and the temporal region t upon which the spatiotemporal region p occupies_spatiotemporal_region projects.</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>occurrent</t>
+          <t>A relation between two independent continuants, the target and the location, in which the target is entirely within the location</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BFO:0000066</t>
+          <t>BFO:0000155</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>occurs in</t>
+          <t>occupies temporal region</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>exists at [BFO:0000108]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>b occurs_in c =def b is a process and c is a material entity or immaterial entityand there exists a spatiotemporal region r and b occupies_spatiotemporal_region r.and forall(t) if b exists_at t then c exists_at t and there exist spatial regions s and s’ where and b spatially_projects_onto s at tand c is occupies_spatial_region s’ at tand s is a proper_continuant_part_of s’ at t</t>
+          <t>p occupies_temporal_region t. This is a primitive relation between an occurrent p and the temporal region t upon which the spatiotemporal region p occupies_spatiotemporal_region projects.</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1299,194 +1298,221 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>independent continuant</t>
+          <t>occurrent</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>RO:0002353</t>
+          <t>BFO:0000066</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>output of</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>output of [RO:0002353]</t>
+          <t>occurs in</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Inverse of has output relation</t>
+          <t>b occurs_in c =def b is a process and c is a material entity or immaterial entityand there exists a spatiotemporal region r and b occupies_spatiotemporal_region r.and forall(t) if b exists_at t then c exists_at t and there exist spatial regions s and s’ where and b spatially_projects_onto s at tand c is occupies_spatial_region s’ at tand s is a proper_continuant_part_of s’ at t</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>independent continuant</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BFO:0000050</t>
+          <t>RO:0002353</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>part of</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>overlaps [RO:0002131]</t>
+          <t>output of</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>output of [RO:0002353]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>A core relation that holds between a part and its whole</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>entity</t>
+          <t>Inverse of has output relation</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>RO:0000056</t>
+          <t>BFO:0000050</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>participates in</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>participates in [RO:0000056]</t>
+          <t>part of</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>overlaps [RO:0002131]</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>A relation between a continuant and a process, in which the continuant is somehow involved in the process</t>
+          <t>A core relation that holds between a part and its whole</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>entity</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BFO:0000054</t>
+          <t>RO:0000056</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>realised in</t>
+          <t>participates in</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>realized in [BFO:0000054]</t>
+          <t>participates in [RO:0000056]</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Inverse of realizes relation.</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>occurrent</t>
+          <t>A relation between a continuant and a process, in which the continuant is somehow involved in the process</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BFO:0000055</t>
+          <t>BFO:0000054</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>realises</t>
+          <t>realised in</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>realizes [BFO:0000055]</t>
+          <t>realized in [BFO:0000054]</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>To say that b realizes c at t is to assert that there is some material entity d and b is a process which has participant d at t and c is a disposition or role of which d is bearer_of at tand the type instantiated by b is correlated with the type instantiated by c.</t>
+          <t>Inverse of realizes relation.</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>occurrent</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIOR:000008</t>
+          <t>BFO:0000055</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>through</t>
+          <t>realises</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>realizes [BFO:0000055]</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve">A relation that holds between an interventions mechanism of action and an entity x, in which the entity x  participates in or is part of the mechanism of action process and is influenced by a BCI or its context such that there is some change in entity x. </t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>behaviour change intervention mechanism of action</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>entity [BFO:0000001]</t>
+          <t>To say that b realizes c at t is to assert that there is some material entity d and b is a process which has participant d at t and c is a disposition or role of which d is bearer_of at tand the type instantiated by b is correlated with the type instantiated by c.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>BCIOR:000008</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>through</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A relation that holds between an interventions mechanism of action and an entity x, in which the entity x  participates in or is part of the mechanism of action process and is influenced by a BCI or its context such that there is some change in entity x. </t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>behaviour change intervention mechanism of action</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
           <t>BCIOR:000015</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>uses</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>has participant [RO:0000057]</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>Has participant that relates a behaviour to a material entity that the person enacting the behaviour intends to enable or facilitate the behaviour.</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,6 +511,7 @@
           <t>causal relation between entities [RO:0002506]</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>process</t>
@@ -661,6 +662,7 @@
           <t>has BCI context</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
           <t>has participant [RO:0000057]</t>
@@ -867,244 +869,238 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RO:0000091</t>
+          <t>BCIOR:000021</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>has disposition</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>has disposition [RO:0000091]</t>
-        </is>
-      </c>
+          <t>has context</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>A relation between an independent continuant (the bearer) and a disposition, in which the disposition specifically depends on the bearer for its existence</t>
-        </is>
-      </c>
+          <t>A relationship that specifies the context in which a process happens.</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>process context</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIOR:000019</t>
+          <t>RO:0000091</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>has end time</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>temporally related to [RO:0002222]</t>
+          <t>has disposition</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>has disposition [RO:0000091]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>A relation between an occurrent x and a one-dimensional temporal entity such that the one-dimensional temporal entity designates the latest boundary of x's existence or manifestation.</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>occurrent</t>
+          <t>A relation between an independent continuant (the bearer) and a disposition, in which the disposition specifically depends on the bearer for its existence</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>RO:0002233</t>
+          <t>BCIOR:000019</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>has input</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>has input [RO:0002233]</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>has end time</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>temporally related to [RO:0002222]</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>p has input c iff: p is a process, c is a material entity, c is a participant in p, c is present at the start of p, and the state of c is modified during p.</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+          <t>A relation between an occurrent x and a one-dimensional temporal entity such that the one-dimensional temporal entity designates the latest boundary of x's existence or manifestation.</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>RO:0002234</t>
+          <t>RO:0002233</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>has output</t>
+          <t>has input</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>has output [RO:0002234]</t>
+          <t>has input [RO:0002233]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>P has output c iff c is a participant in p, c is present at the end of p, and c is not present at the beginning of p.</t>
+          <t>p has input c iff: p is a process, c is a material entity, c is a participant in p, c is present at the start of p, and the state of c is modified during p.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BFO:0000051</t>
+          <t>RO:0002234</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>has part</t>
+          <t>has output</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>has part [BFO:0000051]</t>
+          <t>has output [RO:0002234]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>A core relation that holds between a whole and its part</t>
+          <t>P has output c iff c is a participant in p, c is present at the end of p, and c is not present at the beginning of p.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BFO:0000119</t>
+          <t>BFO:0000051</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>has process attribute</t>
+          <t>has part</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>has profile [BFO:0000119]</t>
+          <t>has part [BFO:0000051]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Inverse of process_profile_of</t>
+          <t>A core relation that holds between a whole and its part</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BFO:0000117</t>
+          <t>BFO:0000119</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>has process part</t>
+          <t>has process attribute</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>has occurrent part [BFO:0000117]</t>
+          <t>has profile [BFO:0000119]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Inverse of occurrent_part_of which is defined as: b occurrent_part_of c =Def. b is a part of c and b and c are occurrents.</t>
+          <t>Inverse of process_profile_of</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIOR:000020</t>
+          <t>BFO:0000117</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>has start time</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>temporally related to [RO:0002222]</t>
+          <t>has process part</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>has occurrent part [BFO:0000117]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>A relation between an occurrent x and a one-dimensional temporal entity such that the one-dimensional temporal entity designates the earliest boundary of x's existence or manifestation.</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>occurrent</t>
+          <t>Inverse of occurrent_part_of which is defined as: b occurrent_part_of c =Def. b is a part of c and b and c are occurrents.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIOR:000002</t>
+          <t>BCIOR:000020</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>has study investigator</t>
+          <t>has start time</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>has participant [RO:0000057]</t>
+          <t>temporally related to [RO:0002222]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>A relation that holds between a study and the study investigator for that study</t>
+          <t>A relation between an occurrent x and a one-dimensional temporal entity such that the one-dimensional temporal entity designates the earliest boundary of x's existence or manifestation.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>research study</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>behaviour change intervention study investigator</t>
+          <t>occurrent</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIOR:000001</t>
+          <t>BCIOR:000002</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>has study sample</t>
+          <t>has study investigator</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1114,7 +1110,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>A relation that holds between a study and the study sample for that study</t>
+          <t>A relation that holds between a study and the study investigator for that study</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1124,198 +1120,203 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>research study sample</t>
+          <t>behaviour change intervention study investigator</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>IAO:0000136</t>
+          <t>BCIOR:000001</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>is about</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>is about [IAO:0000136]</t>
+          <t>has study sample</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>has participant [RO:0000057]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Is about is a (currently) primitive relation that relates an information artifact to an entity.</t>
+          <t>A relation that holds between a study and the study sample for that study</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>research study</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>research study sample</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>RO:0000052</t>
+          <t>IAO:0000136</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>is attribute of</t>
+          <t>is about</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>characteristic of [RO:0000052]</t>
+          <t>is about [IAO:0000136]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>A relation between a specifically dependent continuant (the characteristic) and any other entity (the bearer), in which the characteristic depends on the bearer for its existence.</t>
+          <t>Is about is a (currently) primitive relation that relates an information artifact to an entity.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIOR:000018</t>
+          <t>RO:0000052</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>is behavioural outcome of</t>
+          <t>is attribute of</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>characteristic of [RO:0000052]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Inverse of has behavioural outcome relation.</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>has behavioural outcome</t>
+          <t>A relation between a specifically dependent continuant (the characteristic) and any other entity (the bearer), in which the characteristic depends on the bearer for its existence.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIOR:000014</t>
+          <t>BCIOR:000018</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>is enacted by</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>has participant [RO:0000057]</t>
+          <t>is behavioural outcome of</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Has participant that relates a behaviour to the person enacting the behaviour.</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>person</t>
+          <t>Inverse of has behavioural outcome relation.</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>has behavioural outcome</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BFO:0000133</t>
+          <t>BCIOR:000014</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>is process attribute of</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>process profile of [BFO:0000133]</t>
+          <t>is enacted by</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>has participant [RO:0000057]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>inverse of has_process_profile</t>
+          <t>Has participant that relates a behaviour to the person enacting the behaviour.</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>person</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>RO:0001025</t>
+          <t>BFO:0000133</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>located in</t>
+          <t>is process attribute of</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>located in [RO:0001025]</t>
+          <t>process profile of [BFO:0000133]</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>A relation between two independent continuants, the target and the location, in which the target is entirely within the location</t>
+          <t>inverse of has_process_profile</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BFO:0000155</t>
+          <t>RO:0001025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>occupies temporal region</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>exists at [BFO:0000108]</t>
+          <t>located in</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>located in [RO:0001025]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>p occupies_temporal_region t. This is a primitive relation between an occurrent p and the temporal region t upon which the spatiotemporal region p occupies_spatiotemporal_region projects.</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>occurrent</t>
+          <t>A relation between two independent continuants, the target and the location, in which the target is entirely within the location</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BFO:0000066</t>
+          <t>BFO:0000155</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>occurs in</t>
+          <t>occupies temporal region</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>exists at [BFO:0000108]</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>b occurs_in c =def b is a process and c is a material entity or immaterial entityand there exists a spatiotemporal region r and b occupies_spatiotemporal_region r.and forall(t) if b exists_at t then c exists_at t and there exist spatial regions s and s’ where and b spatially_projects_onto s at tand c is occupies_spatial_region s’ at tand s is a proper_continuant_part_of s’ at t</t>
+          <t>p occupies_temporal_region t. This is a primitive relation between an occurrent p and the temporal region t upon which the spatiotemporal region p occupies_spatiotemporal_region projects.</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1325,194 +1326,221 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>independent continuant</t>
+          <t>occurrent</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>RO:0002353</t>
+          <t>BFO:0000066</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>output of</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>output of [RO:0002353]</t>
+          <t>occurs in</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Inverse of has output relation</t>
+          <t>b occurs_in c =def b is a process and c is a material entity or immaterial entityand there exists a spatiotemporal region r and b occupies_spatiotemporal_region r.and forall(t) if b exists_at t then c exists_at t and there exist spatial regions s and s’ where and b spatially_projects_onto s at tand c is occupies_spatial_region s’ at tand s is a proper_continuant_part_of s’ at t</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>independent continuant</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BFO:0000050</t>
+          <t>RO:0002353</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>part of</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>overlaps [RO:0002131]</t>
+          <t>output of</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>output of [RO:0002353]</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>A core relation that holds between a part and its whole</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>entity</t>
+          <t>Inverse of has output relation</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>RO:0000056</t>
+          <t>BFO:0000050</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>participates in</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>participates in [RO:0000056]</t>
+          <t>part of</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>overlaps [RO:0002131]</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>A relation between a continuant and a process, in which the continuant is somehow involved in the process</t>
+          <t>A core relation that holds between a part and its whole</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>entity</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BFO:0000054</t>
+          <t>RO:0000056</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>realised in</t>
+          <t>participates in</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>realized in [BFO:0000054]</t>
+          <t>participates in [RO:0000056]</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Inverse of realizes relation.</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>occurrent</t>
+          <t>A relation between a continuant and a process, in which the continuant is somehow involved in the process</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BFO:0000055</t>
+          <t>BFO:0000054</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>realises</t>
+          <t>realised in</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>realizes [BFO:0000055]</t>
+          <t>realized in [BFO:0000054]</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>To say that b realizes c at t is to assert that there is some material entity d and b is a process which has participant d at t and c is a disposition or role of which d is bearer_of at tand the type instantiated by b is correlated with the type instantiated by c.</t>
+          <t>Inverse of realizes relation.</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>occurrent</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIOR:000008</t>
+          <t>BFO:0000055</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>through</t>
+          <t>realises</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>realizes [BFO:0000055]</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve">A relation that holds between an interventions mechanism of action and an entity x, in which the entity x  participates in or is part of the mechanism of action process and is influenced by a BCI or its context such that there is some change in entity x. </t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>behaviour change intervention mechanism of action</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>entity [BFO:0000001]</t>
+          <t>To say that b realizes c at t is to assert that there is some material entity d and b is a process which has participant d at t and c is a disposition or role of which d is bearer_of at tand the type instantiated by b is correlated with the type instantiated by c.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>BCIOR:000008</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>through</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A relation that holds between an interventions mechanism of action and an entity x, in which the entity x  participates in or is part of the mechanism of action process and is influenced by a BCI or its context such that there is some change in entity x. </t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>behaviour change intervention mechanism of action</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>BCIOR:000015</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>uses</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>has participant [RO:0000057]</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>Has participant that relates a behaviour to a material entity that the person enacting the behaviour intends to enable or facilitate the behaviour.</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -511,7 +511,6 @@
           <t>causal relation between entities [RO:0002506]</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>process</t>
@@ -662,7 +661,6 @@
           <t>has BCI context</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
           <t>has participant [RO:0000057]</t>
@@ -877,8 +875,6 @@
           <t>has context</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>A relationship that specifies the context in which a process happens.</t>
@@ -894,7 +890,6 @@
           <t>process context</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1152,7 +1147,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>research study sample</t>
+          <t>research study participants</t>
         </is>
       </c>
     </row>
